--- a/无盘.xlsx
+++ b/无盘.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>云更新</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,10 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无反应</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>收费模式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -160,6 +156,10 @@
   </si>
   <si>
     <t>500/台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -380,65 +380,65 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -741,15 +741,15 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="13.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="13.375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -759,48 +759,46 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="27">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2">
         <v>6000</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>35</v>
+      <c r="F2" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
@@ -827,23 +825,23 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="2.875" style="22" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="22" customWidth="1"/>
-    <col min="3" max="3" width="39.125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="45.25" style="22" customWidth="1"/>
-    <col min="5" max="18" width="9" style="21"/>
-    <col min="19" max="16384" width="9" style="22"/>
+    <col min="1" max="1" width="2.875" style="21" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="21" customWidth="1"/>
+    <col min="3" max="3" width="39.125" style="21" customWidth="1"/>
+    <col min="4" max="4" width="45.25" style="21" customWidth="1"/>
+    <col min="5" max="18" width="9" style="20"/>
+    <col min="19" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:158" s="8" customFormat="1" ht="51.75" customHeight="1">
       <c r="B1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="7"/>
@@ -1000,708 +998,708 @@
       <c r="FA1" s="7"/>
       <c r="FB1" s="7"/>
     </row>
-    <row r="2" spans="2:158" s="14" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="2:158" s="13" customFormat="1" ht="18.75" customHeight="1">
+      <c r="B2" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="10">
+        <v>3000</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="12"/>
+      <c r="AM2" s="12"/>
+      <c r="AN2" s="12"/>
+      <c r="AO2" s="12"/>
+      <c r="AP2" s="12"/>
+      <c r="AQ2" s="12"/>
+      <c r="AR2" s="12"/>
+      <c r="AS2" s="12"/>
+      <c r="AT2" s="12"/>
+      <c r="AU2" s="12"/>
+      <c r="AV2" s="12"/>
+      <c r="AW2" s="12"/>
+      <c r="AX2" s="12"/>
+      <c r="AY2" s="12"/>
+      <c r="AZ2" s="12"/>
+      <c r="BA2" s="12"/>
+      <c r="BB2" s="12"/>
+      <c r="BC2" s="12"/>
+      <c r="BD2" s="12"/>
+      <c r="BE2" s="12"/>
+      <c r="BF2" s="12"/>
+      <c r="BG2" s="12"/>
+      <c r="BH2" s="12"/>
+      <c r="BI2" s="12"/>
+      <c r="BJ2" s="12"/>
+      <c r="BK2" s="12"/>
+      <c r="BL2" s="12"/>
+      <c r="BM2" s="12"/>
+      <c r="BN2" s="12"/>
+      <c r="BO2" s="12"/>
+      <c r="BP2" s="12"/>
+      <c r="BQ2" s="12"/>
+      <c r="BR2" s="12"/>
+      <c r="BS2" s="12"/>
+      <c r="BT2" s="12"/>
+      <c r="BU2" s="12"/>
+      <c r="BV2" s="12"/>
+      <c r="BW2" s="12"/>
+      <c r="BX2" s="12"/>
+      <c r="BY2" s="12"/>
+      <c r="BZ2" s="12"/>
+      <c r="CA2" s="12"/>
+      <c r="CB2" s="12"/>
+      <c r="CC2" s="12"/>
+      <c r="CD2" s="12"/>
+      <c r="CE2" s="12"/>
+      <c r="CF2" s="12"/>
+      <c r="CG2" s="12"/>
+      <c r="CH2" s="12"/>
+      <c r="CI2" s="12"/>
+      <c r="CJ2" s="12"/>
+      <c r="CK2" s="12"/>
+      <c r="CL2" s="12"/>
+      <c r="CM2" s="12"/>
+      <c r="CN2" s="12"/>
+      <c r="CO2" s="12"/>
+      <c r="CP2" s="12"/>
+      <c r="CQ2" s="12"/>
+      <c r="CR2" s="12"/>
+      <c r="CS2" s="12"/>
+      <c r="CT2" s="12"/>
+      <c r="CU2" s="12"/>
+      <c r="CV2" s="12"/>
+      <c r="CW2" s="12"/>
+      <c r="CX2" s="12"/>
+      <c r="CY2" s="12"/>
+      <c r="CZ2" s="12"/>
+      <c r="DA2" s="12"/>
+      <c r="DB2" s="12"/>
+      <c r="DC2" s="12"/>
+      <c r="DD2" s="12"/>
+      <c r="DE2" s="12"/>
+      <c r="DF2" s="12"/>
+      <c r="DG2" s="12"/>
+      <c r="DH2" s="12"/>
+      <c r="DI2" s="12"/>
+      <c r="DJ2" s="12"/>
+      <c r="DK2" s="12"/>
+      <c r="DL2" s="12"/>
+      <c r="DM2" s="12"/>
+      <c r="DN2" s="12"/>
+      <c r="DO2" s="12"/>
+      <c r="DP2" s="12"/>
+      <c r="DQ2" s="12"/>
+      <c r="DR2" s="12"/>
+      <c r="DS2" s="12"/>
+      <c r="DT2" s="12"/>
+      <c r="DU2" s="12"/>
+      <c r="DV2" s="12"/>
+      <c r="DW2" s="12"/>
+      <c r="DX2" s="12"/>
+      <c r="DY2" s="12"/>
+      <c r="DZ2" s="12"/>
+      <c r="EA2" s="12"/>
+      <c r="EB2" s="12"/>
+      <c r="EC2" s="12"/>
+      <c r="ED2" s="12"/>
+      <c r="EE2" s="12"/>
+      <c r="EF2" s="12"/>
+      <c r="EG2" s="12"/>
+      <c r="EH2" s="12"/>
+      <c r="EI2" s="12"/>
+      <c r="EJ2" s="12"/>
+      <c r="EK2" s="12"/>
+      <c r="EL2" s="12"/>
+      <c r="EM2" s="12"/>
+      <c r="EN2" s="12"/>
+      <c r="EO2" s="12"/>
+      <c r="EP2" s="12"/>
+      <c r="EQ2" s="12"/>
+      <c r="ER2" s="12"/>
+      <c r="ES2" s="12"/>
+      <c r="ET2" s="12"/>
+      <c r="EU2" s="12"/>
+      <c r="EV2" s="12"/>
+      <c r="EW2" s="12"/>
+      <c r="EX2" s="12"/>
+      <c r="EY2" s="12"/>
+      <c r="EZ2" s="12"/>
+      <c r="FA2" s="12"/>
+      <c r="FB2" s="12"/>
+    </row>
+    <row r="3" spans="2:158" s="13" customFormat="1" ht="18.75" customHeight="1">
+      <c r="B3" s="28"/>
+      <c r="C3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="11">
-        <v>3000</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="13"/>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="13"/>
-      <c r="AF2" s="13"/>
-      <c r="AG2" s="13"/>
-      <c r="AH2" s="13"/>
-      <c r="AI2" s="13"/>
-      <c r="AJ2" s="13"/>
-      <c r="AK2" s="13"/>
-      <c r="AL2" s="13"/>
-      <c r="AM2" s="13"/>
-      <c r="AN2" s="13"/>
-      <c r="AO2" s="13"/>
-      <c r="AP2" s="13"/>
-      <c r="AQ2" s="13"/>
-      <c r="AR2" s="13"/>
-      <c r="AS2" s="13"/>
-      <c r="AT2" s="13"/>
-      <c r="AU2" s="13"/>
-      <c r="AV2" s="13"/>
-      <c r="AW2" s="13"/>
-      <c r="AX2" s="13"/>
-      <c r="AY2" s="13"/>
-      <c r="AZ2" s="13"/>
-      <c r="BA2" s="13"/>
-      <c r="BB2" s="13"/>
-      <c r="BC2" s="13"/>
-      <c r="BD2" s="13"/>
-      <c r="BE2" s="13"/>
-      <c r="BF2" s="13"/>
-      <c r="BG2" s="13"/>
-      <c r="BH2" s="13"/>
-      <c r="BI2" s="13"/>
-      <c r="BJ2" s="13"/>
-      <c r="BK2" s="13"/>
-      <c r="BL2" s="13"/>
-      <c r="BM2" s="13"/>
-      <c r="BN2" s="13"/>
-      <c r="BO2" s="13"/>
-      <c r="BP2" s="13"/>
-      <c r="BQ2" s="13"/>
-      <c r="BR2" s="13"/>
-      <c r="BS2" s="13"/>
-      <c r="BT2" s="13"/>
-      <c r="BU2" s="13"/>
-      <c r="BV2" s="13"/>
-      <c r="BW2" s="13"/>
-      <c r="BX2" s="13"/>
-      <c r="BY2" s="13"/>
-      <c r="BZ2" s="13"/>
-      <c r="CA2" s="13"/>
-      <c r="CB2" s="13"/>
-      <c r="CC2" s="13"/>
-      <c r="CD2" s="13"/>
-      <c r="CE2" s="13"/>
-      <c r="CF2" s="13"/>
-      <c r="CG2" s="13"/>
-      <c r="CH2" s="13"/>
-      <c r="CI2" s="13"/>
-      <c r="CJ2" s="13"/>
-      <c r="CK2" s="13"/>
-      <c r="CL2" s="13"/>
-      <c r="CM2" s="13"/>
-      <c r="CN2" s="13"/>
-      <c r="CO2" s="13"/>
-      <c r="CP2" s="13"/>
-      <c r="CQ2" s="13"/>
-      <c r="CR2" s="13"/>
-      <c r="CS2" s="13"/>
-      <c r="CT2" s="13"/>
-      <c r="CU2" s="13"/>
-      <c r="CV2" s="13"/>
-      <c r="CW2" s="13"/>
-      <c r="CX2" s="13"/>
-      <c r="CY2" s="13"/>
-      <c r="CZ2" s="13"/>
-      <c r="DA2" s="13"/>
-      <c r="DB2" s="13"/>
-      <c r="DC2" s="13"/>
-      <c r="DD2" s="13"/>
-      <c r="DE2" s="13"/>
-      <c r="DF2" s="13"/>
-      <c r="DG2" s="13"/>
-      <c r="DH2" s="13"/>
-      <c r="DI2" s="13"/>
-      <c r="DJ2" s="13"/>
-      <c r="DK2" s="13"/>
-      <c r="DL2" s="13"/>
-      <c r="DM2" s="13"/>
-      <c r="DN2" s="13"/>
-      <c r="DO2" s="13"/>
-      <c r="DP2" s="13"/>
-      <c r="DQ2" s="13"/>
-      <c r="DR2" s="13"/>
-      <c r="DS2" s="13"/>
-      <c r="DT2" s="13"/>
-      <c r="DU2" s="13"/>
-      <c r="DV2" s="13"/>
-      <c r="DW2" s="13"/>
-      <c r="DX2" s="13"/>
-      <c r="DY2" s="13"/>
-      <c r="DZ2" s="13"/>
-      <c r="EA2" s="13"/>
-      <c r="EB2" s="13"/>
-      <c r="EC2" s="13"/>
-      <c r="ED2" s="13"/>
-      <c r="EE2" s="13"/>
-      <c r="EF2" s="13"/>
-      <c r="EG2" s="13"/>
-      <c r="EH2" s="13"/>
-      <c r="EI2" s="13"/>
-      <c r="EJ2" s="13"/>
-      <c r="EK2" s="13"/>
-      <c r="EL2" s="13"/>
-      <c r="EM2" s="13"/>
-      <c r="EN2" s="13"/>
-      <c r="EO2" s="13"/>
-      <c r="EP2" s="13"/>
-      <c r="EQ2" s="13"/>
-      <c r="ER2" s="13"/>
-      <c r="ES2" s="13"/>
-      <c r="ET2" s="13"/>
-      <c r="EU2" s="13"/>
-      <c r="EV2" s="13"/>
-      <c r="EW2" s="13"/>
-      <c r="EX2" s="13"/>
-      <c r="EY2" s="13"/>
-      <c r="EZ2" s="13"/>
-      <c r="FA2" s="13"/>
-      <c r="FB2" s="13"/>
-    </row>
-    <row r="3" spans="2:158" s="14" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B3" s="9"/>
-      <c r="C3" s="15" t="s">
+      <c r="D3" s="15">
+        <v>1800</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="12"/>
+      <c r="AI3" s="12"/>
+      <c r="AJ3" s="12"/>
+      <c r="AK3" s="12"/>
+      <c r="AL3" s="12"/>
+      <c r="AM3" s="12"/>
+      <c r="AN3" s="12"/>
+      <c r="AO3" s="12"/>
+      <c r="AP3" s="12"/>
+      <c r="AQ3" s="12"/>
+      <c r="AR3" s="12"/>
+      <c r="AS3" s="12"/>
+      <c r="AT3" s="12"/>
+      <c r="AU3" s="12"/>
+      <c r="AV3" s="12"/>
+      <c r="AW3" s="12"/>
+      <c r="AX3" s="12"/>
+      <c r="AY3" s="12"/>
+      <c r="AZ3" s="12"/>
+      <c r="BA3" s="12"/>
+      <c r="BB3" s="12"/>
+      <c r="BC3" s="12"/>
+      <c r="BD3" s="12"/>
+      <c r="BE3" s="12"/>
+      <c r="BF3" s="12"/>
+      <c r="BG3" s="12"/>
+      <c r="BH3" s="12"/>
+      <c r="BI3" s="12"/>
+      <c r="BJ3" s="12"/>
+      <c r="BK3" s="12"/>
+      <c r="BL3" s="12"/>
+      <c r="BM3" s="12"/>
+      <c r="BN3" s="12"/>
+      <c r="BO3" s="12"/>
+      <c r="BP3" s="12"/>
+      <c r="BQ3" s="12"/>
+      <c r="BR3" s="12"/>
+      <c r="BS3" s="12"/>
+      <c r="BT3" s="12"/>
+      <c r="BU3" s="12"/>
+      <c r="BV3" s="12"/>
+      <c r="BW3" s="12"/>
+      <c r="BX3" s="12"/>
+      <c r="BY3" s="12"/>
+      <c r="BZ3" s="12"/>
+      <c r="CA3" s="12"/>
+      <c r="CB3" s="12"/>
+      <c r="CC3" s="12"/>
+      <c r="CD3" s="12"/>
+      <c r="CE3" s="12"/>
+      <c r="CF3" s="12"/>
+      <c r="CG3" s="12"/>
+      <c r="CH3" s="12"/>
+      <c r="CI3" s="12"/>
+      <c r="CJ3" s="12"/>
+      <c r="CK3" s="12"/>
+      <c r="CL3" s="12"/>
+      <c r="CM3" s="12"/>
+      <c r="CN3" s="12"/>
+      <c r="CO3" s="12"/>
+      <c r="CP3" s="12"/>
+      <c r="CQ3" s="12"/>
+      <c r="CR3" s="12"/>
+      <c r="CS3" s="12"/>
+      <c r="CT3" s="12"/>
+      <c r="CU3" s="12"/>
+      <c r="CV3" s="12"/>
+      <c r="CW3" s="12"/>
+      <c r="CX3" s="12"/>
+      <c r="CY3" s="12"/>
+      <c r="CZ3" s="12"/>
+      <c r="DA3" s="12"/>
+      <c r="DB3" s="12"/>
+      <c r="DC3" s="12"/>
+      <c r="DD3" s="12"/>
+      <c r="DE3" s="12"/>
+      <c r="DF3" s="12"/>
+      <c r="DG3" s="12"/>
+      <c r="DH3" s="12"/>
+      <c r="DI3" s="12"/>
+      <c r="DJ3" s="12"/>
+      <c r="DK3" s="12"/>
+      <c r="DL3" s="12"/>
+      <c r="DM3" s="12"/>
+      <c r="DN3" s="12"/>
+      <c r="DO3" s="12"/>
+      <c r="DP3" s="12"/>
+      <c r="DQ3" s="12"/>
+      <c r="DR3" s="12"/>
+      <c r="DS3" s="12"/>
+      <c r="DT3" s="12"/>
+      <c r="DU3" s="12"/>
+      <c r="DV3" s="12"/>
+      <c r="DW3" s="12"/>
+      <c r="DX3" s="12"/>
+      <c r="DY3" s="12"/>
+      <c r="DZ3" s="12"/>
+      <c r="EA3" s="12"/>
+      <c r="EB3" s="12"/>
+      <c r="EC3" s="12"/>
+      <c r="ED3" s="12"/>
+      <c r="EE3" s="12"/>
+      <c r="EF3" s="12"/>
+      <c r="EG3" s="12"/>
+      <c r="EH3" s="12"/>
+      <c r="EI3" s="12"/>
+      <c r="EJ3" s="12"/>
+      <c r="EK3" s="12"/>
+      <c r="EL3" s="12"/>
+      <c r="EM3" s="12"/>
+      <c r="EN3" s="12"/>
+      <c r="EO3" s="12"/>
+      <c r="EP3" s="12"/>
+      <c r="EQ3" s="12"/>
+      <c r="ER3" s="12"/>
+      <c r="ES3" s="12"/>
+      <c r="ET3" s="12"/>
+      <c r="EU3" s="12"/>
+      <c r="EV3" s="12"/>
+      <c r="EW3" s="12"/>
+      <c r="EX3" s="12"/>
+      <c r="EY3" s="12"/>
+      <c r="EZ3" s="12"/>
+      <c r="FA3" s="12"/>
+      <c r="FB3" s="12"/>
+    </row>
+    <row r="4" spans="2:158" s="13" customFormat="1" ht="18.75" customHeight="1">
+      <c r="B4" s="28"/>
+      <c r="C4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D4" s="17">
         <v>1800</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="13"/>
-      <c r="AB3" s="13"/>
-      <c r="AC3" s="13"/>
-      <c r="AD3" s="13"/>
-      <c r="AE3" s="13"/>
-      <c r="AF3" s="13"/>
-      <c r="AG3" s="13"/>
-      <c r="AH3" s="13"/>
-      <c r="AI3" s="13"/>
-      <c r="AJ3" s="13"/>
-      <c r="AK3" s="13"/>
-      <c r="AL3" s="13"/>
-      <c r="AM3" s="13"/>
-      <c r="AN3" s="13"/>
-      <c r="AO3" s="13"/>
-      <c r="AP3" s="13"/>
-      <c r="AQ3" s="13"/>
-      <c r="AR3" s="13"/>
-      <c r="AS3" s="13"/>
-      <c r="AT3" s="13"/>
-      <c r="AU3" s="13"/>
-      <c r="AV3" s="13"/>
-      <c r="AW3" s="13"/>
-      <c r="AX3" s="13"/>
-      <c r="AY3" s="13"/>
-      <c r="AZ3" s="13"/>
-      <c r="BA3" s="13"/>
-      <c r="BB3" s="13"/>
-      <c r="BC3" s="13"/>
-      <c r="BD3" s="13"/>
-      <c r="BE3" s="13"/>
-      <c r="BF3" s="13"/>
-      <c r="BG3" s="13"/>
-      <c r="BH3" s="13"/>
-      <c r="BI3" s="13"/>
-      <c r="BJ3" s="13"/>
-      <c r="BK3" s="13"/>
-      <c r="BL3" s="13"/>
-      <c r="BM3" s="13"/>
-      <c r="BN3" s="13"/>
-      <c r="BO3" s="13"/>
-      <c r="BP3" s="13"/>
-      <c r="BQ3" s="13"/>
-      <c r="BR3" s="13"/>
-      <c r="BS3" s="13"/>
-      <c r="BT3" s="13"/>
-      <c r="BU3" s="13"/>
-      <c r="BV3" s="13"/>
-      <c r="BW3" s="13"/>
-      <c r="BX3" s="13"/>
-      <c r="BY3" s="13"/>
-      <c r="BZ3" s="13"/>
-      <c r="CA3" s="13"/>
-      <c r="CB3" s="13"/>
-      <c r="CC3" s="13"/>
-      <c r="CD3" s="13"/>
-      <c r="CE3" s="13"/>
-      <c r="CF3" s="13"/>
-      <c r="CG3" s="13"/>
-      <c r="CH3" s="13"/>
-      <c r="CI3" s="13"/>
-      <c r="CJ3" s="13"/>
-      <c r="CK3" s="13"/>
-      <c r="CL3" s="13"/>
-      <c r="CM3" s="13"/>
-      <c r="CN3" s="13"/>
-      <c r="CO3" s="13"/>
-      <c r="CP3" s="13"/>
-      <c r="CQ3" s="13"/>
-      <c r="CR3" s="13"/>
-      <c r="CS3" s="13"/>
-      <c r="CT3" s="13"/>
-      <c r="CU3" s="13"/>
-      <c r="CV3" s="13"/>
-      <c r="CW3" s="13"/>
-      <c r="CX3" s="13"/>
-      <c r="CY3" s="13"/>
-      <c r="CZ3" s="13"/>
-      <c r="DA3" s="13"/>
-      <c r="DB3" s="13"/>
-      <c r="DC3" s="13"/>
-      <c r="DD3" s="13"/>
-      <c r="DE3" s="13"/>
-      <c r="DF3" s="13"/>
-      <c r="DG3" s="13"/>
-      <c r="DH3" s="13"/>
-      <c r="DI3" s="13"/>
-      <c r="DJ3" s="13"/>
-      <c r="DK3" s="13"/>
-      <c r="DL3" s="13"/>
-      <c r="DM3" s="13"/>
-      <c r="DN3" s="13"/>
-      <c r="DO3" s="13"/>
-      <c r="DP3" s="13"/>
-      <c r="DQ3" s="13"/>
-      <c r="DR3" s="13"/>
-      <c r="DS3" s="13"/>
-      <c r="DT3" s="13"/>
-      <c r="DU3" s="13"/>
-      <c r="DV3" s="13"/>
-      <c r="DW3" s="13"/>
-      <c r="DX3" s="13"/>
-      <c r="DY3" s="13"/>
-      <c r="DZ3" s="13"/>
-      <c r="EA3" s="13"/>
-      <c r="EB3" s="13"/>
-      <c r="EC3" s="13"/>
-      <c r="ED3" s="13"/>
-      <c r="EE3" s="13"/>
-      <c r="EF3" s="13"/>
-      <c r="EG3" s="13"/>
-      <c r="EH3" s="13"/>
-      <c r="EI3" s="13"/>
-      <c r="EJ3" s="13"/>
-      <c r="EK3" s="13"/>
-      <c r="EL3" s="13"/>
-      <c r="EM3" s="13"/>
-      <c r="EN3" s="13"/>
-      <c r="EO3" s="13"/>
-      <c r="EP3" s="13"/>
-      <c r="EQ3" s="13"/>
-      <c r="ER3" s="13"/>
-      <c r="ES3" s="13"/>
-      <c r="ET3" s="13"/>
-      <c r="EU3" s="13"/>
-      <c r="EV3" s="13"/>
-      <c r="EW3" s="13"/>
-      <c r="EX3" s="13"/>
-      <c r="EY3" s="13"/>
-      <c r="EZ3" s="13"/>
-      <c r="FA3" s="13"/>
-      <c r="FB3" s="13"/>
-    </row>
-    <row r="4" spans="2:158" s="14" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B4" s="9"/>
-      <c r="C4" s="17" t="s">
+      <c r="E4" s="11"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="12"/>
+      <c r="AI4" s="12"/>
+      <c r="AJ4" s="12"/>
+      <c r="AK4" s="12"/>
+      <c r="AL4" s="12"/>
+      <c r="AM4" s="12"/>
+      <c r="AN4" s="12"/>
+      <c r="AO4" s="12"/>
+      <c r="AP4" s="12"/>
+      <c r="AQ4" s="12"/>
+      <c r="AR4" s="12"/>
+      <c r="AS4" s="12"/>
+      <c r="AT4" s="12"/>
+      <c r="AU4" s="12"/>
+      <c r="AV4" s="12"/>
+      <c r="AW4" s="12"/>
+      <c r="AX4" s="12"/>
+      <c r="AY4" s="12"/>
+      <c r="AZ4" s="12"/>
+      <c r="BA4" s="12"/>
+      <c r="BB4" s="12"/>
+      <c r="BC4" s="12"/>
+      <c r="BD4" s="12"/>
+      <c r="BE4" s="12"/>
+      <c r="BF4" s="12"/>
+      <c r="BG4" s="12"/>
+      <c r="BH4" s="12"/>
+      <c r="BI4" s="12"/>
+      <c r="BJ4" s="12"/>
+      <c r="BK4" s="12"/>
+      <c r="BL4" s="12"/>
+      <c r="BM4" s="12"/>
+      <c r="BN4" s="12"/>
+      <c r="BO4" s="12"/>
+      <c r="BP4" s="12"/>
+      <c r="BQ4" s="12"/>
+      <c r="BR4" s="12"/>
+      <c r="BS4" s="12"/>
+      <c r="BT4" s="12"/>
+      <c r="BU4" s="12"/>
+      <c r="BV4" s="12"/>
+      <c r="BW4" s="12"/>
+      <c r="BX4" s="12"/>
+      <c r="BY4" s="12"/>
+      <c r="BZ4" s="12"/>
+      <c r="CA4" s="12"/>
+      <c r="CB4" s="12"/>
+      <c r="CC4" s="12"/>
+      <c r="CD4" s="12"/>
+      <c r="CE4" s="12"/>
+      <c r="CF4" s="12"/>
+      <c r="CG4" s="12"/>
+      <c r="CH4" s="12"/>
+      <c r="CI4" s="12"/>
+      <c r="CJ4" s="12"/>
+      <c r="CK4" s="12"/>
+      <c r="CL4" s="12"/>
+      <c r="CM4" s="12"/>
+      <c r="CN4" s="12"/>
+      <c r="CO4" s="12"/>
+      <c r="CP4" s="12"/>
+      <c r="CQ4" s="12"/>
+      <c r="CR4" s="12"/>
+      <c r="CS4" s="12"/>
+      <c r="CT4" s="12"/>
+      <c r="CU4" s="12"/>
+      <c r="CV4" s="12"/>
+      <c r="CW4" s="12"/>
+      <c r="CX4" s="12"/>
+      <c r="CY4" s="12"/>
+      <c r="CZ4" s="12"/>
+      <c r="DA4" s="12"/>
+      <c r="DB4" s="12"/>
+      <c r="DC4" s="12"/>
+      <c r="DD4" s="12"/>
+      <c r="DE4" s="12"/>
+      <c r="DF4" s="12"/>
+      <c r="DG4" s="12"/>
+      <c r="DH4" s="12"/>
+      <c r="DI4" s="12"/>
+      <c r="DJ4" s="12"/>
+      <c r="DK4" s="12"/>
+      <c r="DL4" s="12"/>
+      <c r="DM4" s="12"/>
+      <c r="DN4" s="12"/>
+      <c r="DO4" s="12"/>
+      <c r="DP4" s="12"/>
+      <c r="DQ4" s="12"/>
+      <c r="DR4" s="12"/>
+      <c r="DS4" s="12"/>
+      <c r="DT4" s="12"/>
+      <c r="DU4" s="12"/>
+      <c r="DV4" s="12"/>
+      <c r="DW4" s="12"/>
+      <c r="DX4" s="12"/>
+      <c r="DY4" s="12"/>
+      <c r="DZ4" s="12"/>
+      <c r="EA4" s="12"/>
+      <c r="EB4" s="12"/>
+      <c r="EC4" s="12"/>
+      <c r="ED4" s="12"/>
+      <c r="EE4" s="12"/>
+      <c r="EF4" s="12"/>
+      <c r="EG4" s="12"/>
+      <c r="EH4" s="12"/>
+      <c r="EI4" s="12"/>
+      <c r="EJ4" s="12"/>
+      <c r="EK4" s="12"/>
+      <c r="EL4" s="12"/>
+      <c r="EM4" s="12"/>
+      <c r="EN4" s="12"/>
+      <c r="EO4" s="12"/>
+      <c r="EP4" s="12"/>
+      <c r="EQ4" s="12"/>
+      <c r="ER4" s="12"/>
+      <c r="ES4" s="12"/>
+      <c r="ET4" s="12"/>
+      <c r="EU4" s="12"/>
+      <c r="EV4" s="12"/>
+      <c r="EW4" s="12"/>
+      <c r="EX4" s="12"/>
+      <c r="EY4" s="12"/>
+      <c r="EZ4" s="12"/>
+      <c r="FA4" s="12"/>
+      <c r="FB4" s="12"/>
+    </row>
+    <row r="5" spans="2:158" s="13" customFormat="1" ht="18.75" customHeight="1">
+      <c r="B5" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="18">
-        <v>1800</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
-      <c r="AA4" s="13"/>
-      <c r="AB4" s="13"/>
-      <c r="AC4" s="13"/>
-      <c r="AD4" s="13"/>
-      <c r="AE4" s="13"/>
-      <c r="AF4" s="13"/>
-      <c r="AG4" s="13"/>
-      <c r="AH4" s="13"/>
-      <c r="AI4" s="13"/>
-      <c r="AJ4" s="13"/>
-      <c r="AK4" s="13"/>
-      <c r="AL4" s="13"/>
-      <c r="AM4" s="13"/>
-      <c r="AN4" s="13"/>
-      <c r="AO4" s="13"/>
-      <c r="AP4" s="13"/>
-      <c r="AQ4" s="13"/>
-      <c r="AR4" s="13"/>
-      <c r="AS4" s="13"/>
-      <c r="AT4" s="13"/>
-      <c r="AU4" s="13"/>
-      <c r="AV4" s="13"/>
-      <c r="AW4" s="13"/>
-      <c r="AX4" s="13"/>
-      <c r="AY4" s="13"/>
-      <c r="AZ4" s="13"/>
-      <c r="BA4" s="13"/>
-      <c r="BB4" s="13"/>
-      <c r="BC4" s="13"/>
-      <c r="BD4" s="13"/>
-      <c r="BE4" s="13"/>
-      <c r="BF4" s="13"/>
-      <c r="BG4" s="13"/>
-      <c r="BH4" s="13"/>
-      <c r="BI4" s="13"/>
-      <c r="BJ4" s="13"/>
-      <c r="BK4" s="13"/>
-      <c r="BL4" s="13"/>
-      <c r="BM4" s="13"/>
-      <c r="BN4" s="13"/>
-      <c r="BO4" s="13"/>
-      <c r="BP4" s="13"/>
-      <c r="BQ4" s="13"/>
-      <c r="BR4" s="13"/>
-      <c r="BS4" s="13"/>
-      <c r="BT4" s="13"/>
-      <c r="BU4" s="13"/>
-      <c r="BV4" s="13"/>
-      <c r="BW4" s="13"/>
-      <c r="BX4" s="13"/>
-      <c r="BY4" s="13"/>
-      <c r="BZ4" s="13"/>
-      <c r="CA4" s="13"/>
-      <c r="CB4" s="13"/>
-      <c r="CC4" s="13"/>
-      <c r="CD4" s="13"/>
-      <c r="CE4" s="13"/>
-      <c r="CF4" s="13"/>
-      <c r="CG4" s="13"/>
-      <c r="CH4" s="13"/>
-      <c r="CI4" s="13"/>
-      <c r="CJ4" s="13"/>
-      <c r="CK4" s="13"/>
-      <c r="CL4" s="13"/>
-      <c r="CM4" s="13"/>
-      <c r="CN4" s="13"/>
-      <c r="CO4" s="13"/>
-      <c r="CP4" s="13"/>
-      <c r="CQ4" s="13"/>
-      <c r="CR4" s="13"/>
-      <c r="CS4" s="13"/>
-      <c r="CT4" s="13"/>
-      <c r="CU4" s="13"/>
-      <c r="CV4" s="13"/>
-      <c r="CW4" s="13"/>
-      <c r="CX4" s="13"/>
-      <c r="CY4" s="13"/>
-      <c r="CZ4" s="13"/>
-      <c r="DA4" s="13"/>
-      <c r="DB4" s="13"/>
-      <c r="DC4" s="13"/>
-      <c r="DD4" s="13"/>
-      <c r="DE4" s="13"/>
-      <c r="DF4" s="13"/>
-      <c r="DG4" s="13"/>
-      <c r="DH4" s="13"/>
-      <c r="DI4" s="13"/>
-      <c r="DJ4" s="13"/>
-      <c r="DK4" s="13"/>
-      <c r="DL4" s="13"/>
-      <c r="DM4" s="13"/>
-      <c r="DN4" s="13"/>
-      <c r="DO4" s="13"/>
-      <c r="DP4" s="13"/>
-      <c r="DQ4" s="13"/>
-      <c r="DR4" s="13"/>
-      <c r="DS4" s="13"/>
-      <c r="DT4" s="13"/>
-      <c r="DU4" s="13"/>
-      <c r="DV4" s="13"/>
-      <c r="DW4" s="13"/>
-      <c r="DX4" s="13"/>
-      <c r="DY4" s="13"/>
-      <c r="DZ4" s="13"/>
-      <c r="EA4" s="13"/>
-      <c r="EB4" s="13"/>
-      <c r="EC4" s="13"/>
-      <c r="ED4" s="13"/>
-      <c r="EE4" s="13"/>
-      <c r="EF4" s="13"/>
-      <c r="EG4" s="13"/>
-      <c r="EH4" s="13"/>
-      <c r="EI4" s="13"/>
-      <c r="EJ4" s="13"/>
-      <c r="EK4" s="13"/>
-      <c r="EL4" s="13"/>
-      <c r="EM4" s="13"/>
-      <c r="EN4" s="13"/>
-      <c r="EO4" s="13"/>
-      <c r="EP4" s="13"/>
-      <c r="EQ4" s="13"/>
-      <c r="ER4" s="13"/>
-      <c r="ES4" s="13"/>
-      <c r="ET4" s="13"/>
-      <c r="EU4" s="13"/>
-      <c r="EV4" s="13"/>
-      <c r="EW4" s="13"/>
-      <c r="EX4" s="13"/>
-      <c r="EY4" s="13"/>
-      <c r="EZ4" s="13"/>
-      <c r="FA4" s="13"/>
-      <c r="FB4" s="13"/>
-    </row>
-    <row r="5" spans="2:158" s="14" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="11">
+      <c r="C5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="10">
         <f>1200</f>
         <v>1200</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-    </row>
-    <row r="6" spans="2:158" s="14" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B6" s="9"/>
-      <c r="C6" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="16">
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+    </row>
+    <row r="6" spans="2:158" s="13" customFormat="1" ht="18.75" customHeight="1">
+      <c r="B6" s="28"/>
+      <c r="C6" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="15">
         <f>700</f>
         <v>700</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-    </row>
-    <row r="7" spans="2:158" s="14" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B7" s="9"/>
-      <c r="C7" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="18">
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+    </row>
+    <row r="7" spans="2:158" s="13" customFormat="1" ht="18.75" customHeight="1">
+      <c r="B7" s="28"/>
+      <c r="C7" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="17">
         <f>700</f>
         <v>700</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
     </row>
     <row r="8" spans="2:158" ht="18.75" customHeight="1">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="D8" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+    </row>
+    <row r="9" spans="2:158" ht="18.75" customHeight="1">
+      <c r="B9" s="28"/>
+      <c r="C9" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-    </row>
-    <row r="9" spans="2:158" ht="18.75" customHeight="1">
-      <c r="B9" s="9"/>
-      <c r="C9" s="20" t="s">
+      <c r="D9" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+    </row>
+    <row r="10" spans="2:158" ht="51" customHeight="1">
+      <c r="B10" s="28"/>
+      <c r="C10" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-    </row>
-    <row r="10" spans="2:158" ht="51" customHeight="1">
-      <c r="B10" s="9"/>
-      <c r="C10" s="20" t="s">
+      <c r="D10" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+    </row>
+    <row r="11" spans="2:158" ht="17.25" customHeight="1">
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+    </row>
+    <row r="12" spans="2:158" ht="17.25" customHeight="1">
+      <c r="B12" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-    </row>
-    <row r="11" spans="2:158" ht="17.25" customHeight="1">
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-    </row>
-    <row r="12" spans="2:158" ht="17.25" customHeight="1">
-      <c r="B12" s="24" t="s">
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+    </row>
+    <row r="13" spans="2:158" ht="17.25" customHeight="1">
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+    </row>
+    <row r="14" spans="2:158" ht="17.25" customHeight="1">
+      <c r="B14" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-    </row>
-    <row r="13" spans="2:158" ht="17.25" customHeight="1">
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
-    </row>
-    <row r="14" spans="2:158" ht="17.25" customHeight="1">
-      <c r="B14" s="24" t="s">
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+    </row>
+    <row r="15" spans="2:158" ht="17.25" customHeight="1">
+      <c r="B15" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-    </row>
-    <row r="15" spans="2:158" ht="17.25" customHeight="1">
-      <c r="B15" s="25" t="s">
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+    </row>
+    <row r="16" spans="2:158" ht="17.25" customHeight="1">
+      <c r="B16" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21"/>
-    </row>
-    <row r="16" spans="2:158" ht="17.25" customHeight="1">
-      <c r="B16" s="25" t="s">
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+    </row>
+    <row r="17" spans="2:20" ht="17.25" customHeight="1">
+      <c r="B17" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-    </row>
-    <row r="17" spans="2:20" ht="17.25" customHeight="1">
-      <c r="B17" s="25" t="s">
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+    </row>
+    <row r="18" spans="2:20" ht="17.25" customHeight="1">
+      <c r="B18" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21"/>
-    </row>
-    <row r="18" spans="2:20" ht="17.25" customHeight="1">
-      <c r="B18" s="26" t="s">
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+    </row>
+    <row r="19" spans="2:20" ht="17.25" customHeight="1">
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+    </row>
+    <row r="20" spans="2:20" ht="17.25" customHeight="1">
+      <c r="B20" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
-    </row>
-    <row r="19" spans="2:20" ht="17.25" customHeight="1">
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="S19" s="21"/>
-      <c r="T19" s="21"/>
-    </row>
-    <row r="20" spans="2:20" ht="17.25" customHeight="1">
-      <c r="B20" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="21"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
     </row>
     <row r="21" spans="2:20">
-      <c r="S21" s="21"/>
-      <c r="T21" s="21"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="20"/>
     </row>
     <row r="22" spans="2:20">
-      <c r="S22" s="21"/>
-      <c r="T22" s="21"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
     </row>
     <row r="23" spans="2:20">
-      <c r="S23" s="21"/>
-      <c r="T23" s="21"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
     </row>
     <row r="24" spans="2:20">
-      <c r="S24" s="21"/>
-      <c r="T24" s="21"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
